--- a/R_Scripts/MatthewR/Category Analysis/New Method/tables.xlsx
+++ b/R_Scripts/MatthewR/Category Analysis/New Method/tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthew/Desktop/CDRC19/R_Scripts/MatthewR/Category Analysis/New Method/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6543FFD7-21B8-4B46-AF0C-503D3A538541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CC8023-E751-E64B-A8FA-81BCAE8A2A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16360" activeTab="1" xr2:uid="{241EA9B0-9B53-E34F-819A-8DC4F1FB891F}"/>
   </bookViews>
@@ -217,9 +217,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -233,6 +230,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -564,78 +564,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="10"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="9"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="4"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="4"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="5"/>
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="5"/>
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="4"/>
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="4"/>
@@ -644,193 +644,193 @@
       </c>
     </row>
     <row r="9" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D12" s="8"/>
-      <c r="E12" s="8" t="s">
+      <c r="D12" s="7"/>
+      <c r="E12" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="8" t="s">
         <v>10</v>
       </c>
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F17" s="4"/>
     </row>
     <row r="18" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F22" s="4"/>
     </row>
     <row r="23" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
       <c r="F23" s="4"/>
     </row>
     <row r="24" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="7"/>
+      <c r="E24" s="6"/>
     </row>
     <row r="25" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="8"/>
+      <c r="E25" s="7"/>
     </row>
     <row r="26" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="8"/>
+      <c r="E26" s="7"/>
     </row>
     <row r="27" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="9"/>
+      <c r="E27" s="8"/>
     </row>
     <row r="28" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="9"/>
+      <c r="E28" s="8"/>
     </row>
     <row r="29" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="8"/>
+      <c r="E29" s="7"/>
     </row>
     <row r="30" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E30" s="8"/>
+      <c r="E30" s="7"/>
     </row>
     <row r="31" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E31" s="8"/>
+      <c r="E31" s="7"/>
     </row>
     <row r="32" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="8"/>
+      <c r="E32" s="7"/>
     </row>
     <row r="33" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E33" s="8"/>
+      <c r="E33" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -846,7 +846,7 @@
   <dimension ref="D4:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:F17"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -857,138 +857,138 @@
   </cols>
   <sheetData>
     <row r="4" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D4" s="8"/>
-      <c r="E4" s="8" t="s">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <v>-3.0228999999999999</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="7">
         <v>-2.7806000000000002</v>
       </c>
     </row>
     <row r="8" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D9" s="8"/>
-      <c r="E9" s="8" t="s">
+      <c r="D9" s="7"/>
+      <c r="E9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <v>2.96E-3</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="7">
         <v>-75.796800000000005</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="7">
         <v>-2.6572</v>
       </c>
     </row>
     <row r="13" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
     </row>
     <row r="14" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D14" s="8"/>
-      <c r="E14" s="8" t="s">
+      <c r="D14" s="7"/>
+      <c r="E14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="7">
         <v>9.1600000000000004E-4</v>
       </c>
     </row>
     <row r="17" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="7">
         <v>-2.3281000000000001</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="7">
         <v>-1.7807999999999999</v>
       </c>
     </row>

--- a/R_Scripts/MatthewR/Category Analysis/New Method/tables.xlsx
+++ b/R_Scripts/MatthewR/Category Analysis/New Method/tables.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthew/Desktop/CDRC19/R_Scripts/MatthewR/Category Analysis/New Method/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CC8023-E751-E64B-A8FA-81BCAE8A2A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE41E942-483E-2F40-BCB9-DE759DF7D161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16360" activeTab="1" xr2:uid="{241EA9B0-9B53-E34F-819A-8DC4F1FB891F}"/>
+    <workbookView xWindow="30560" yWindow="-340" windowWidth="28800" windowHeight="16360" activeTab="4" xr2:uid="{241EA9B0-9B53-E34F-819A-8DC4F1FB891F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="food exp" sheetId="1" r:id="rId1"/>
+    <sheet name="food sig" sheetId="3" r:id="rId2"/>
+    <sheet name="dis exp" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,22 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="31">
-  <si>
-    <t>Imputation Dataset 1</t>
-  </si>
-  <si>
-    <t>Imputation Dataset 2</t>
-  </si>
-  <si>
-    <t>Imputation Dataset 3</t>
-  </si>
-  <si>
-    <t>Imputation Dataset 4</t>
-  </si>
-  <si>
-    <t>Imputation Dataset 5</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="78">
   <si>
     <t>Explanatory Variables</t>
   </si>
@@ -128,12 +116,173 @@
   </si>
   <si>
     <t>1.4x10^(-6)</t>
+  </si>
+  <si>
+    <t>Imputed Datasets it appears in</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crude diabetes prevalence male   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">male lung cancer deaths per 100 000 who iarc 2016   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ratio of diabetes to overweight prevalence  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">deaths no access to handwashing facility sex both age 70 number   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dementia ihme 2017   </t>
+  </si>
+  <si>
+    <t>cardiovascular diseases ihme 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kidney disease ihme 2017  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">respiratory disease ihme 2017  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">liver disease ihme 2017   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">diabetes blood and endocrine disease ihme 2017   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hepatitis ihme 2017   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">meningitis ihme 2017 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cancers ihme 2017   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">parkinsons disease ihme 2017   </t>
+  </si>
+  <si>
+    <t>prevalence of obesity male who 2019</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 4, 5</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 5</t>
+  </si>
+  <si>
+    <t>P-Value</t>
+  </si>
+  <si>
+    <t>$6.79\times10^{-5}$</t>
+  </si>
+  <si>
+    <t>$6.33\times10^{-5}$</t>
+  </si>
+  <si>
+    <t>$4.05\times10^{-6}$</t>
+  </si>
+  <si>
+    <t>$7.19\times10^{-5}$</t>
+  </si>
+  <si>
+    <t>$6.88\times10^{-6}$</t>
+  </si>
+  <si>
+    <t>$3.66\times10^{-6}$</t>
+  </si>
+  <si>
+    <t>$5.48\times10^{-5}$</t>
+  </si>
+  <si>
+    <t>$1.38\times10^{-5}$</t>
+  </si>
+  <si>
+    <t>$1.18\times10^{-6}$</t>
+  </si>
+  <si>
+    <t>crude diabetes prevalence male</t>
+  </si>
+  <si>
+    <t>meningitis ihme 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dementia ihme 2017 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cardiovascular diseases ihme 2017              </t>
+  </si>
+  <si>
+    <t>diabetes blood and endocrine disease ihme 2017</t>
+  </si>
+  <si>
+    <t>liver disease ihme 2017</t>
+  </si>
+  <si>
+    <t>ratio of diabetes to obesity prevalence</t>
+  </si>
+  <si>
+    <t>kidney disease ihme 2017</t>
+  </si>
+  <si>
+    <t>hepatitis ihme 2017</t>
+  </si>
+  <si>
+    <t>Imputed Dataset it appears in</t>
+  </si>
+  <si>
+    <t>1,2,3,5</t>
+  </si>
+  <si>
+    <t>2,3</t>
+  </si>
+  <si>
+    <t>2,5</t>
+  </si>
+  <si>
+    <t>3,5</t>
+  </si>
+  <si>
+    <t>Freuency</t>
+  </si>
+  <si>
+    <t>Significant Variable</t>
+  </si>
+  <si>
+    <t>Data Category</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>Life Satisfaction Indicator</t>
+  </si>
+  <si>
+    <t>MICE</t>
+  </si>
+  <si>
+    <t>Disease</t>
+  </si>
+  <si>
+    <t>Food and Water</t>
+  </si>
+  <si>
+    <t>World Stats</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="168" formatCode="0.00000"/>
+    <numFmt numFmtId="169" formatCode="0.0000"/>
+    <numFmt numFmtId="170" formatCode="0.000"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -199,12 +348,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -212,9 +360,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -235,6 +380,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -549,293 +711,164 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D299726-CF1C-D143-A1EF-26C80F9974DC}">
-  <dimension ref="D1:K33"/>
+  <dimension ref="D1:I23"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E33"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="59" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="58.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="54.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="99.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="99.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D1" s="12" t="s">
+    <row r="1" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D1" s="7"/>
+      <c r="E1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D2" s="2"/>
+      <c r="E2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D3" s="3"/>
+      <c r="E3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D4" s="3"/>
+      <c r="E4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D3" s="7" t="s">
+      <c r="F4" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D5" s="4"/>
+      <c r="E5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D6" s="4"/>
+      <c r="E6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D7" s="3"/>
+      <c r="E7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D4" s="7" t="s">
+      <c r="F7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D8" s="3"/>
+      <c r="E8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D5" s="8" t="s">
+      <c r="F8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D9" s="3"/>
+      <c r="E9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D6" s="8" t="s">
+      <c r="F9" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D10" s="3"/>
+      <c r="E10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D7" s="7" t="s">
+      <c r="F10" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D11" s="3"/>
+      <c r="E11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="K8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D12" s="7"/>
-      <c r="E12" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D13" s="6" t="s">
+      <c r="F11" s="11">
         <v>2</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D14" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D15" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D17" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D20" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D22" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D24" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="6"/>
-    </row>
-    <row r="25" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D25" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="7"/>
-    </row>
-    <row r="26" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D26" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="7"/>
-    </row>
-    <row r="27" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D27" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="8"/>
-    </row>
-    <row r="28" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D28" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="8"/>
-    </row>
-    <row r="29" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D29" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="7"/>
-    </row>
-    <row r="30" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D30" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="7"/>
-    </row>
-    <row r="31" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D31" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" s="7"/>
-    </row>
-    <row r="32" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D32" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E32" s="7"/>
-    </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D33" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E33" s="7"/>
+    </row>
+    <row r="12" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D23" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D1:E1"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -845,8 +878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F52A3217-22D3-E046-B078-65B12145BDDF}">
   <dimension ref="D4:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -857,138 +890,138 @@
   </cols>
   <sheetData>
     <row r="4" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D4" s="7"/>
-      <c r="E4" s="7" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="E5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D7" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D5" s="7" t="s">
+      <c r="E7" s="5">
+        <v>-3.0228999999999999</v>
+      </c>
+      <c r="F7" s="5">
+        <v>-2.7806000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="11" t="s">
+      <c r="F10" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="5">
+        <v>2.96E-3</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="5">
+        <v>-75.796800000000005</v>
+      </c>
+      <c r="F12" s="5">
+        <v>-2.6572</v>
+      </c>
+    </row>
+    <row r="13" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D14" s="5"/>
+      <c r="E14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="7">
-        <v>-3.0228999999999999</v>
-      </c>
-      <c r="F7" s="7">
-        <v>-2.7806000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D9" s="7"/>
-      <c r="E9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="7">
-        <v>2.96E-3</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D12" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="7">
-        <v>-75.796800000000005</v>
-      </c>
-      <c r="F12" s="7">
-        <v>-2.6572</v>
-      </c>
-    </row>
-    <row r="13" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D14" s="7"/>
-      <c r="E14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D16" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="7">
+      <c r="F16" s="5">
         <v>9.1600000000000004E-4</v>
       </c>
     </row>
     <row r="17" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D17" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="7">
+      <c r="D17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="5">
         <v>-2.3281000000000001</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="5">
         <v>-1.7807999999999999</v>
       </c>
     </row>
@@ -996,4 +1029,746 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D09C6C27-A6A9-2946-8BA8-BF5066655791}">
+  <dimension ref="G4:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="57.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G19" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A39664E0-251F-6C4A-A9B9-F9F864404527}">
+  <dimension ref="E4:N40"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="41.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="41.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E4" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="L4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="N5" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E6" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="17">
+        <v>2.4000000000000001E-4</v>
+      </c>
+      <c r="G6" s="13">
+        <v>-18.18</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E7" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="18">
+        <v>6.6E-3</v>
+      </c>
+      <c r="G7" s="13">
+        <v>-0.33</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E8" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="17">
+        <v>2.7E-4</v>
+      </c>
+      <c r="G8" s="13">
+        <v>-7.43</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="N8" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E9" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="17">
+        <v>2.9E-4</v>
+      </c>
+      <c r="G9" s="13">
+        <v>7.42</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="N9" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="L10" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="N10" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E11" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="L11" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="N11" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E12" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="13">
+        <v>-22.59</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="M12" s="8">
+        <v>4</v>
+      </c>
+      <c r="N12" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E13" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="19">
+        <v>1.371E-2</v>
+      </c>
+      <c r="G13" s="20">
+        <v>-4.0285000000000002</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="M13" s="8">
+        <v>4</v>
+      </c>
+      <c r="N13" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E14" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="20">
+        <v>-0.5101</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="M14" s="8">
+        <v>4</v>
+      </c>
+      <c r="N14" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E15" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="18">
+        <v>1.49E-3</v>
+      </c>
+      <c r="G15" s="20">
+        <v>0.83720000000000006</v>
+      </c>
+    </row>
+    <row r="16" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="E16" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="18">
+        <v>1.6199999999999999E-3</v>
+      </c>
+      <c r="G16" s="20">
+        <v>-7.0308999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E17" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="20">
+        <v>9.1522000000000006</v>
+      </c>
+    </row>
+    <row r="18" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+    </row>
+    <row r="19" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E19" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+    </row>
+    <row r="20" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E20" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="18">
+        <v>1.8779999999999999E-3</v>
+      </c>
+      <c r="G20" s="20">
+        <v>-14.494999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E21" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="19">
+        <v>3.9513E-2</v>
+      </c>
+      <c r="G21" s="20">
+        <v>-3.1190000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E22" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" s="20">
+        <v>-0.49159999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E23" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" s="19">
+        <v>1.9633000000000001E-2</v>
+      </c>
+      <c r="G23" s="20">
+        <v>2.5375000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E24" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="18">
+        <v>3.5270000000000002E-3</v>
+      </c>
+      <c r="G24" s="20">
+        <v>-5.6101999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E25" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="17">
+        <v>1.1900000000000001E-4</v>
+      </c>
+      <c r="G25" s="20">
+        <v>7.7404999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+    </row>
+    <row r="27" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E27" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+    </row>
+    <row r="28" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E28" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G28" s="20">
+        <v>-149.48439999999999</v>
+      </c>
+      <c r="J28" s="14"/>
+    </row>
+    <row r="29" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E29" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="G29" s="20">
+        <v>-0.53639999999999999</v>
+      </c>
+      <c r="J29" s="14"/>
+    </row>
+    <row r="30" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E30" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30" s="18">
+        <v>3.4660000000000003E-2</v>
+      </c>
+      <c r="G30" s="20">
+        <v>3.1292</v>
+      </c>
+      <c r="J30" s="15"/>
+    </row>
+    <row r="31" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E31" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F31" s="18">
+        <v>4.6699999999999997E-3</v>
+      </c>
+      <c r="G31" s="20">
+        <v>41.537700000000001</v>
+      </c>
+      <c r="J31" s="15"/>
+    </row>
+    <row r="32" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E32" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="G32" s="20">
+        <v>-11.464499999999999</v>
+      </c>
+      <c r="J32" s="14"/>
+    </row>
+    <row r="33" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+    </row>
+    <row r="34" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E34" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+    </row>
+    <row r="35" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E35" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F35" s="17">
+        <v>2.3599999999999999E-4</v>
+      </c>
+      <c r="G35" s="20">
+        <v>-22.667100000000001</v>
+      </c>
+      <c r="I35" s="14"/>
+    </row>
+    <row r="36" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E36" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F36" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="G36" s="20">
+        <v>-0.57540000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E37" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F37" s="18">
+        <v>2.4269999999999999E-3</v>
+      </c>
+      <c r="G37" s="20">
+        <v>3.5831</v>
+      </c>
+    </row>
+    <row r="38" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E38" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F38" s="17">
+        <v>5.1999999999999995E-4</v>
+      </c>
+      <c r="G38" s="20">
+        <v>0.97870000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E39" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F39" s="17">
+        <v>7.36E-4</v>
+      </c>
+      <c r="G39" s="20">
+        <v>-7.6833</v>
+      </c>
+    </row>
+    <row r="40" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E40" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F40" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G40" s="20">
+        <v>10.7676</v>
+      </c>
+      <c r="I40" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E34:G34"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB6AC5F-9EB6-2948-8023-28B6A904341B}">
+  <dimension ref="D4:F10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="D4:F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>